--- a/个人日报1.10/个人日报 黄振宇 1.10.xlsx
+++ b/个人日报1.10/个人日报 黄振宇 1.10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48428C57-C47B-4AD9-B053-0CA83C3F2A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28AB6B-5B9F-45BE-B221-47122EFA1B67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="1.8" sheetId="9" r:id="rId7"/>
     <sheet name="1.9" sheetId="10" r:id="rId8"/>
     <sheet name="1.10" sheetId="11" r:id="rId9"/>
+    <sheet name="1.11" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名">#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="73">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -421,6 +422,14 @@
   </si>
   <si>
     <t>准备项目的基本模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Qt的知识内容，事件部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>做项目模块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1869,100 +1878,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2012,6 +1927,100 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -15505,6 +15514,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC648F1-B97F-4764-A0B4-17441AB5370B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7071360" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -16224,6 +16312,440 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD21FDE-4E12-44D6-BC57-65D5E1335EBF}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="7.296875" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="101">
+        <v>44207</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="112">
+        <v>44207</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="118">
+        <v>44207</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="34">
+        <v>8</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36">
+        <v>2</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37">
+        <v>3</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="36">
+        <v>4</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37">
+        <v>6</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="36">
+        <v>7</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="44">
+        <f>SUM(E10:E16)</f>
+        <v>9</v>
+      </c>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
+        <v>1</v>
+      </c>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39">
+        <v>2</v>
+      </c>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="40">
+        <v>3</v>
+      </c>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{483F26A9-7E56-491A-87D2-51F17DD57B4D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{EEF77D4E-FDAF-4B81-92C1-5C11B22FA4B0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{9809A8DE-2401-47AF-A6E0-B289FFB9F5B5}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E111"/>
@@ -16815,17 +17337,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16882,46 +17404,46 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="138"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="112">
         <v>44201</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="118">
         <v>44201</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="17" t="s">
@@ -16940,19 +17462,19 @@
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="144"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="142" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="33" t="s">
         <v>9</v>
       </c>
@@ -16961,15 +17483,15 @@
       <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="34">
         <v>1</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="133" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="125"/>
@@ -16982,15 +17504,15 @@
       <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="34">
         <v>7</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="133" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="125"/>
@@ -17003,9 +17525,9 @@
       <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="34"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125"/>
@@ -17016,9 +17538,9 @@
       <c r="B13" s="36">
         <v>4</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="34"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125"/>
@@ -17029,9 +17551,9 @@
       <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="34"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125"/>
@@ -17042,9 +17564,9 @@
       <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
       <c r="F15" s="34"/>
       <c r="G15" s="124"/>
       <c r="H15" s="125"/>
@@ -17055,9 +17577,9 @@
       <c r="B16" s="36">
         <v>7</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="34"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125"/>
@@ -17065,19 +17587,19 @@
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:10" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" s="9" customFormat="1" ht="22.5" customHeight="1">
@@ -17097,57 +17619,57 @@
       <c r="B19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="115" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="144"/>
     </row>
     <row r="20" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="39">
         <v>2</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="2:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="42" t="s">
@@ -17167,12 +17689,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -17181,22 +17713,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17228,17 +17750,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17295,46 +17817,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="112">
         <v>44202</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="118">
         <v>44202</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
@@ -17353,19 +17875,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17374,15 +17896,15 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>8</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="133" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="125"/>
@@ -17395,15 +17917,15 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="133" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="125"/>
@@ -17416,9 +17938,9 @@
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
@@ -17429,9 +17951,9 @@
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
@@ -17442,9 +17964,9 @@
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -17455,9 +17977,9 @@
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -17468,9 +17990,9 @@
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -17478,19 +18000,19 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>9</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17510,57 +18032,57 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17601,36 +18123,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17659,17 +18181,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -17726,46 +18248,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="112">
         <v>44203</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="118">
         <v>44203</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
@@ -17784,19 +18306,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -17805,15 +18327,15 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>8</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="133" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="125"/>
@@ -17826,11 +18348,11 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="127"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126"/>
       <c r="I11" s="102"/>
@@ -17839,9 +18361,9 @@
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
@@ -17852,9 +18374,9 @@
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
@@ -17865,9 +18387,9 @@
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -17878,9 +18400,9 @@
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -17891,9 +18413,9 @@
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -17901,19 +18423,19 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>8</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17933,57 +18455,57 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18024,36 +18546,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18082,17 +18604,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18149,46 +18671,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="112">
         <v>44204</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="118">
         <v>44204</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
@@ -18207,19 +18729,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18228,15 +18750,15 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>8</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="133" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="125"/>
@@ -18249,15 +18771,15 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34">
         <v>0.5</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="133" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="125"/>
@@ -18270,9 +18792,9 @@
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
@@ -18283,9 +18805,9 @@
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
@@ -18296,9 +18818,9 @@
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -18309,9 +18831,9 @@
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -18322,9 +18844,9 @@
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -18332,19 +18854,19 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>8.5</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18364,57 +18886,57 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18455,36 +18977,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18501,7 +19023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A9104B-3093-4F95-BF52-245373D6BE36}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
@@ -18513,17 +19035,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -18580,46 +19102,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="112">
         <v>44205</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="118">
         <v>44205</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
@@ -18638,19 +19160,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -18659,15 +19181,15 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>6</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="133" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="125"/>
@@ -18680,15 +19202,15 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34">
         <v>2</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="133" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="125"/>
@@ -18701,9 +19223,9 @@
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
@@ -18714,9 +19236,9 @@
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
@@ -18727,9 +19249,9 @@
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -18740,9 +19262,9 @@
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -18753,9 +19275,9 @@
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -18763,19 +19285,19 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>8</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18795,57 +19317,57 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18886,36 +19408,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -18933,7 +19455,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I29" sqref="A1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -18944,17 +19466,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="2"/>
@@ -19011,46 +19533,46 @@
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="138"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="139">
+      <c r="B6" s="112">
         <v>44206</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="141"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="118">
         <v>44206</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="17" t="s">
@@ -19069,19 +19591,19 @@
       <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
@@ -19090,15 +19612,15 @@
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="34">
         <v>8</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="133" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="125"/>
@@ -19111,11 +19633,11 @@
       <c r="A11" s="36">
         <v>2</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="127"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="125"/>
       <c r="H11" s="126"/>
       <c r="I11" s="102"/>
@@ -19124,9 +19646,9 @@
       <c r="A12" s="37">
         <v>3</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="34"/>
       <c r="F12" s="124"/>
       <c r="G12" s="125"/>
@@ -19137,9 +19659,9 @@
       <c r="A13" s="36">
         <v>4</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="34"/>
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
@@ -19150,9 +19672,9 @@
       <c r="A14" s="36">
         <v>5</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="34"/>
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
@@ -19163,9 +19685,9 @@
       <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="34"/>
       <c r="F15" s="124"/>
       <c r="G15" s="125"/>
@@ -19176,9 +19698,9 @@
       <c r="A16" s="36">
         <v>7</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="34"/>
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
@@ -19186,19 +19708,19 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="44">
         <f>SUM(E10:E16)</f>
         <v>8</v>
       </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
       <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19218,57 +19740,57 @@
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="D19" s="115" t="s">
+      <c r="C19" s="137"/>
+      <c r="D19" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="39">
         <v>2</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="40">
         <v>3</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19309,36 +19831,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
